--- a/medicine/Enfance/Odette_Sorensen/Odette_Sorensen.xlsx
+++ b/medicine/Enfance/Odette_Sorensen/Odette_Sorensen.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Odette Sorensen, née le 7 avril 1903[1] à Fomperron (Deux-Sèvres) et morte le 1er décembre 1999 à Paris, est une romancière française de mère française et de père danois. Elle a reçu le grand prix de littérature policière en 1949 pour La Parole est au mort, son cinquième roman. Ce livre, signé O. Sorensen, a la particularité d'être présenté comme étant adapté de l'anglais par Luc Rivière, qui est en fait le pseudonyme que l'auteur a utilisé pour ses quatre premiers romans.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Odette Sorensen, née le 7 avril 1903 à Fomperron (Deux-Sèvres) et morte le 1er décembre 1999 à Paris, est une romancière française de mère française et de père danois. Elle a reçu le grand prix de littérature policière en 1949 pour La Parole est au mort, son cinquième roman. Ce livre, signé O. Sorensen, a la particularité d'être présenté comme étant adapté de l'anglais par Luc Rivière, qui est en fait le pseudonyme que l'auteur a utilisé pour ses quatre premiers romans.
 Elle a également publié entre 1960 et 1978 de nombreux romans policiers pour la jeunesse : chez Hachette principalement dans la Bibliothèque verte avec la série Le Carré d'As (sept titres écrits de 1965 à 1969), chez Hatier - G.T. Rageot et chez les Éditions du Temps dans la collection Suite pour Isabelle. 
 Elle a obtenu le grand prix du salon de l'enfance pour son roman La Prison sous les arbres.
 </t>
